--- a/results/2015年第3季.xlsx
+++ b/results/2015年第3季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -737,6 +737,7584 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>502,728</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>399,245</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96,007</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>94,280</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>111,589</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9,565</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>-194,293</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>111,148</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>480,812</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,331,494</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,174,560</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,295,557</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,439,499</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>894,800</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>851,304</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>961,616</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-660,858</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-4,286,930</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>675,853</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4,780,404</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,350,436</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>31,322,816</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,351,942</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,269,778</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>766,796</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>462,900</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>962,102</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-1,052,900</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-255,708</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-25,268</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>16,146,483</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>17,080,963</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>44,405,232</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10,033,816</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,968,116</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,101,244</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,178,105</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>509,566</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-4,940</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-1,703,419</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>499,493</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6,955,736</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,624,931</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>26,341,440</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>285,603</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>162,559</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>109,560</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>117,119</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>97,007</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-71,505</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-64,071</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>53,330</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>246,619</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>47,995</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,219,915</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>111</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>16,143,254</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,650,927</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>902,328</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>796,607</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,316,987</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>26,537</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-2,962,761</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>594,955</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25,893,238</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,345,823</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>46,699,891</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1,673</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-20,988</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-18,606</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-31,905</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-50,752</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-17,777</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-40,223</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>40,709</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-0.68</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18,618</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,783,735</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,912,939</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,177,581</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>827,290</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>805,098</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,024,831</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-620,662</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-1,908,089</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>117,685</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>5,951,190</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>10,832,204</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>22,268,868</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,389,158</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>268,219</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>124,917</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>147,390</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7,842</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-34,875</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>16,020</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-19,113</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,256,140</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>810,349</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,640,690</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,316,760</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,017,880</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>700,062</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>667,034</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,223,865</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-1,886,565</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-2,764,924</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-517,704</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>15,778,181</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>15,082,774</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>39,769,294</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,436,577</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>566,009</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>261,965</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>203,281</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>360,916</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-319,004</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>31,389</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>50,165</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,085,845</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,375,542</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,202,001</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,428,940</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-274,800</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-605,854</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-388,971</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-475,080</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-497,862</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>574,463</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-765,681</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>21,587,870</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.45</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,305,035</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>75,196,416</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>399,956</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>93,006</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20,855</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>57,620</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-34,657</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-1,516</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-27,941</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-35,530</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>621,160</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>536,358</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,549,971</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15,365,664</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,635,240</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>490,050</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>478,203</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>674,334</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-643,352</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-1,221,590</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,583</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>20,169,017</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,577,732</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>24,932,190</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>28.35</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>470,845</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>90,829</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7,451</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>20,941</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>21,613</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-102,979</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>126,170</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-89,515</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,967,387</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,503,188</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>3,062,703</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,586,111</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>477,904</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>329,682</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>305,721</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>630,065</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-430,915</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-505,230</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>151,950</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,222,207</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,188,286</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,556,691</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,804,281</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>756,582</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21,109</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-1,096,147</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>812,650</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-1,097,761</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7,315,891</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>1,810,387</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>14,615,056</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>557,988</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>140,925</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8,380</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>19,335</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19,021</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>32,448</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>-20,670</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-13,814</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>354,585</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>145,622</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>860,597</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>33</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>277,254</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-279,028</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-221,773</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>7,039</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,770,548</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,636,297</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,698,778</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>311,799</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>38,796</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-28,161</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2,967</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>71,491</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-32,351</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-109,164</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>85,996</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>535,315</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>704,146</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,785,115</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>97,866</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>29,400</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17,564</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-45,335</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-46,668</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>125,358</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>318,261</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>787,640</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>59,060</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>38,712</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-21,362</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-20,650</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-26,179</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-13,911</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>27,820</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-30,647</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>123,875</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-4.87</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-3.77</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>140,857</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>540,250</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>82</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,197,369</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>397,761</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>333,681</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>314,490</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>298,931</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-113,652</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-277,856</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>184,235</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>765,100</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,323,237</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,679,253</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,058,920</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>480,918</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94,834</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>99,625</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-204,017</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-509,286</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>732,728</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-688,336</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,978,850</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,846,770</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,659,825</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,225,176</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>405,531</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>60,261</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>102,961</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-158,947</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-44,917</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>138,278</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-219,231</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,581,633</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,876,633</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,855,450</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28.55</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4,855,622</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>387,668</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-21,241</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>70,976</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>330,197</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-443,543</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>195,526</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>308,007</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>13,018,261</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>5,132,566</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>20,437,209</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-100,916</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>59,604</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>21,748</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>24,396</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>607,007</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,327,550</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>190,007</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>56,056</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>83,911</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1,575,550</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-93,914</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-903,627</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1,455,764</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10,301,233</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,934,381</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23,963,818</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,198,571</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>326,676</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>173,062</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>166,125</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>136,671</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-96,237</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-170,469</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>97,508</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>852,031</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>948,491</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>3,028,139</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>770,079</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>191,286</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80,883</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>92,423</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>248,824</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-24,218</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-222,215</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>243,062</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,489,472</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>214,157</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,907,384</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>9,498,434</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,564,687</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>209,592</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3,057,686</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-264,794</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-611,932</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>841,701</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-699,899</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>25,154,544</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11,387,716</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>44,626,181</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>132,363</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-7,702</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-16,172</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-16,791</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-34,161</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1,386</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-39,678</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>257,029</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.59</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>369,083</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,855,808</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>19</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>67,693,680</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4,204,706</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>827,518</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1,141,327</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10,854,016</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-21,372,729</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>7,402,942</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>5,712,457</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>362,475,412</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>451,880,390</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>684,148,097</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,820,719</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-21,791</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-78,513</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-148,927</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-110,668</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-178,926</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>135,654</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-400,797</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10,301,047</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,356,122</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14,112,704</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>709,460</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-92,294</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-108,766</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-131,542</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>52,680</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-30,413</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-107,990</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>21,828</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,935,133</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-4.13</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-2.48</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>974,955</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4,839,319</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>372,050</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>209,150</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42,271</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>33,450</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-32,139</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-9,457</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-179,765</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-44,947</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>734,927</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>795,263</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,479,927</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>39,727</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12,124</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-3,262</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-13,855</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-207,882</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-447</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>197,995</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-207,882</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,255,161</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0.62</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>25,761</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,489,546</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>240,374</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>36,672</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>71,436</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-18,949</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>182,299</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-136,447</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-26,892</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>271,114</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>284,013</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,083,694</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>374,618</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>86,701</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>41,812</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>34,368</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>42,278</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-4,126</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-68,292</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>31,000</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>407,351</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>271,582</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,728,446</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>935,328</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26,831</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-70,644</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-77,948</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>123,929</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1,837</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>14,852</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>107,357</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,699,653</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-3.56</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-1.93</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>901,574</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>3,865,295</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>375,809</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>39,672</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-19,573</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-14,879</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-89,363</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-77,198</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>177,848</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-148,171</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,656,053</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>893,623</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,633,782</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,851,037</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,712,326</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-149,097</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-804,019</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-534,687</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-231,322</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1,389,026</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-814,290</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>29,701,489</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-8.03</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-1.22</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>12,893,840</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>39,361,971</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,481,732</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>472,844</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-12,957</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>226,448</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-147,025</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>336,214</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-323,812</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-158,880</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>5,437,670</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>3,382,453</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>11,621,047</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>110,670,088</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>37,328,044</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,149,587</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5,821,839</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>15,525,165</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-14,600,103</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-17,917,412</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>10,003,596</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>247,094,004</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>162,028,047</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>403,897,832</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,662,883</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-41,472</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-553,064</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-576,821</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-289</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>363,218</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-449,941</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-133,685</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>11,557,779</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-2.69</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.48</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>18,787,992</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>32,842,892</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,154,349</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7,206</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-441,658</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-547,864</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>293,816</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-99,420</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>388,597</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>256,172</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10,239,533</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-2.09</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.36</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>19,391,553</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>36,283,924</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>88,756,324</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10,772,654</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>4,705,647</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3,481,924</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>21,120,726</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-4,765,068</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-15,518,602</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>16,864,185</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>154,941,376</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>204,010,807</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>396,066,511</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10,337,320</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3,857,587</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2,952,080</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4,731,494</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,622,065</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-1,400,044</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-6,699,901</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,301,814</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>52,839,390</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>50,362,720</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>105,334,989</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>886,037</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>171,264</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78,088</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>133,978</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>300,010</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>35,666</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-225,795</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>298,968</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,357,234</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,923,925</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,382,424</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,065,601,878</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>76,522,124</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38,165,643</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>38,858,067</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>7,147,982</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>130,596,992</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-129,936,561</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>-3,217,035</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,342,717,401</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>328,890,569</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,369,804,884</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,686,690</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>465,353</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>246,533</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>190,097</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-1,014,970</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>126,296</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1,037,176</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-1,063,178</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>12,803,164</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,467,367</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>22,080,508</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,261,623</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,109,045</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>238,475</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>691,247</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-470,881</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>287,559</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-2,071,266</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-873,907</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>67,188,319</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>46,080,597</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>104,180,862</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,237,254</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>876,702</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>458,943</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,493,391</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>157,397</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-1,624,434</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>649,305</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>138,670</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>24,701,425</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>1,899,765</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>51,430,483</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>147,095</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>22,183</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>8,182</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>18,004</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-32,640</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-2,048</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>-34,656</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>168,148</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>408,352</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,391,132</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>28.85</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,876,913</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,271,319</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>945,558</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>783,352</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,309,384</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-1,783,254</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-424,942</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>26,664</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>26,734,824</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>15,716,160</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>49,200,520</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>29,208,814</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9,019,927</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,461,219</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,078,325</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6,104,374</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,973,789</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-9,221,829</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2,944,352</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>80,313,327</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>108,774,141</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>169,090,021</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,177,648</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>22,282,792</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>14,037,535</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11,967,689</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>17,418,098</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>7,316,402</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-38,546,728</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>12,264,543</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>69,444,180</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>292,962,916</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>433,796,997</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,467,399</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>725,570</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-17,888</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-292,323</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-30,504</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-2,145,587</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>1,060,873</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-65,185</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>8,642,694</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>-3.31</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>-1.73</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,059,071</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>17,294,940</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>60,468</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>31,991</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-12,748</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>98,762</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-299,084</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-674,245</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>271,567</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-299,084</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9,593,040</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>624</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,609,388</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>140,207,369</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7,183,212</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4,870,744</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8,966,726</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20,685,877</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-11,414,379</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-19,643,563</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>19,199,585</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>165,996,223</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>134,335,468</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>414,721,897</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,370,991</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>374,812</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>32,833</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>120,974</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>167,279</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>87,819</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-248,403</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>105,982</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,482,958</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,283,360</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>9,963,489</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,417,450</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>873,430</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>162,053</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>16,588</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>237,712</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-69,081</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-17,004</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>187,056</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6,838,600</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,930,747</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,587,255</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,237,296</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,161,880</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>339,744</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>482,521</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,232,180</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,088,154</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-39,484</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>193,129</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,368,397</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>17,690,852</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>35,002,881</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>236</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>7,889,273</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,170,835</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>225,007</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>854,808</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-564,134</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4,746,497</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-9,000,000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-652,926</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10,556,217</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,859,092</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>31,999,666</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32.55</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,206,249</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>383,812</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>240,271</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>230,799</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>203,490</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-190,249</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-210,243</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>21,848</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,770,352</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,132,008</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,994,936</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>14</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>33,036,256</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-1,244,382</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-2,647,449</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-2,566,167</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-1,229,128</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-4,577,664</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2,432,312</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-1,528,860</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>127,303,704</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-3.87</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-1.23</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>109,177,673</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>193,788,946</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,092,216</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>106,921</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>52,381</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-113</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>254,819</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-208,304</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-85,100</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>26,523</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>24,459,846</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>31,968,365</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>34,232,755</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>51,905,237</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,922,193</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,925,127</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,378,812</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>15,672,337</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,044,463</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-10,838,474</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>11,276,473</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>253,146,926</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>145,304,718</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>517,146,052</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>266,966</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>11,041</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-4,713</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>12,247</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>122,768</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-1,783</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-191,101</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>120,985</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,647,936</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,770,839</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,692,736</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>542,509</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>180,254</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92,238</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>70,258</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>56,774</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-77,887</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-127,917</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>49,310</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>311,463</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>589,053</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,731,468</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>35,319,841</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6,910,603</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>980,762</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,307,045</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>16,285,926</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-20,415,887</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-9,822,262</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-3,941,208</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>105,213,949</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>183,891,275</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>329,212,091</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,155,871</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>367,067</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>188,131</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>215,222</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>268,809</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-157,140</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-11,861</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>113,508</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,328,263</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,603,312</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,359,186</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>374,786</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>75,224</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-145</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>26,341</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>70,649</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>90,121</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-146,301</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>80,882</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>325,301</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,141,779</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>3,928,583</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,416,546</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,198,597</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>673,788</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>540,264</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,153,712</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,357,709</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-929,285</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>691,942</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18,088,309</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>25,442,399</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>40,133,119</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>84,507,068</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3,011,352</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1,310,048</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>347,303</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-4,364,037</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-207,761</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3,612,225</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-4,543,630</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>98,254,084</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>7,087,999</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>141,543,302</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,638,624</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>883,825</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>105,111</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>146,850</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-603,376</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-19,206</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-61,109</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-682,381</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4,814,303</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,687,018</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,344,104</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>43</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,670,552</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>954,436</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>344,534</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>320,968</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-838,570</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-539,271</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1,002,649</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-1,029,443</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>16,578,797</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,258,314</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>27,227,379</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6,636,099</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>383,656</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>117,048</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>115,960</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-130,009</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-5,273</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>154,026</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-133,914</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>5,590,413</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>341,065</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>7,595,192</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>865,947</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>299,285</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>45,007</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>151,364</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>118,096</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-40,440</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-103,485</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>60,495</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3,023,076</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,454,824</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,206,141</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>753,392</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>291,588</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>31,924</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>23,451</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>336,918</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-450,946</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>157,682</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-115,978</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,608,102</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,354,235</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,662,957</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>212.5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,546,089</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>554,388</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>289,373</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>222,216</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>811,562</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-5,453</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-752,205</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>745,281</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,684,580</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,224,590</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,224,479</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>136,770</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>79,601</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-67,521</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-5,533</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>12,123</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-724,335</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>484,085</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-629,697</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2,737,757</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>3,038,959</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>5,219,682</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>14,848,705</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3,140,594</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,527,267</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,385,597</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,114,767</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-937,818</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-755,108</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,315,379</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13,889,693</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>12,858,281</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>27,697,349</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>17,108,530</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,660,502</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,301,444</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,214,673</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,723,927</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>156,052</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-2,176,597</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1,295,004</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26,913,530</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,723,875</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>47,004,444</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24.05</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,247,527</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,086,597</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>962,425</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,036,976</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,551,337</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-1,439,391</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>378,692</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,363,850</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>28,972,928</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,571,214</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>79,207,519</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>911,337</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>132,175</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>31,463</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>68,136</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>13,241</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>3,240</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-14,775</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>4,660</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,469,850</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,000,500</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>5,222,690</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,052,713</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,001,091</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>179,333</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>316,964</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>7,252</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-100,022</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-214,996</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-85,873</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>13,299,469</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,885,215</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>34,994,234</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>215,862,244</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,197,097</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,585,750</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3,079,549</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-2,762,170</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,587,137</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>1,440,158</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-4,185,794</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>244,689,094</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24,530,431</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>351,936,248</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>293</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>119,315,891</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17,690,050</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,167,916</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,287,045</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-635,993</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1,835,015</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-12,761,338</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-901,048</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>175,643,699</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,268,728</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>344,977,275</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>33,250,976</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,487,473</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>549,234</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>583,083</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>135,745</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-784,252</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-1,660,187</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-328,990</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>72,123,153</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,707,276</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>102,902,841</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9,437,752</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,746,307</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,324,084</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,235,918</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,015,434</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2,844,345</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-3,863,828</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>698,902</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>9,563,025</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,518,836</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>31,863,992</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>27.55</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>14,003,491</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,679,680</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>642,677</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>817,615</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>273,992</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1,283,192</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-1,710,115</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>227,518</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12,521,865</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,073,844</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>35,024,128</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>140,547</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>39,032</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-1,830</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9,507</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>16,910</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-63,395</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>-60,691</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>16,810</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>336,164</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,945</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,033,215</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,154,486</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>172,984</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>50,261</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>59,380</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>142,444</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>6,716</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-97,263</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>141,887</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,103,891</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>377,691</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,000,156</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>129</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>366,175</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>332,242</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>56,038</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>48,051</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>25,081</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-30,174</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>-4,121</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>404,552</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>64,843</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,112,363</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
